--- a/test3.xlsx
+++ b/test3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,23 +434,407 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>2014</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AAG150226BX0
+</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AAC101117RP1
+</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FUA070111R16
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Mision</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MEJORAR LA CALIDAD DE VIDA DE LAS PERSONAS CON AUTISMO, OFRECIENDO SERVICOS ESPECIALIZADOS QUE INCREMENTE SUS OPORTUNIDADES DE INCLUSION SOCIAL Y FOMENTAR EL CONOCIMIENTO Y SENSIBILIZACION MEDIANTE LA DIFUSION DEL TEMA DEL AUTISMO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Apoyar a la población de escasos recursos económicos que padezca de enfermedades terminales, crónicas o degenerativas, así como a sus familiares, que carezcan de los medios económicos para solventar los gastos que genera la atención de su padecimiento, buscando ante todo que toda la población tenga acceso a una atención apropiada para atender su enfermedad y que sus familiares tengan acceso a la a</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Es coadyudar con la Universidad Autonoma de Aguascalientes en el logro de su vision a traves del apoyo economico, social, administrativo y organizacional, en proyectos academicos, culturales y sociales y economicos establecidos de comun acuerdo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Vision</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SER EL GRUPO DE APOYO DE REFERENCIA EN LA ATANCION A PERSONAS CON AUTISMO, TRABAJANDO DE FORMA COORDINADA CON AUTORIDADES, INSTITUCIONES, EMPRESAS Y TODO SECTOR DE LA SOCIEDAD, PARA OFRECER SERVICIOS Y ATENCION DE CALIDAD QUE SE AJUSTEN A LAS NECESIDADES DE LAS PERSONAS CON AUTISMO Y ASI GARANTIZAR SU INCLUSION EN TODOS LOS AMBITOS Y UN FUTURO DIGNO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ser considerada como una asociación dedicada a la asistencia social sin fines de lucro, buscando siempre, que los apoyos otorgados sean recibidos por quienes en verdad lo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Es ser un organismo de reconocida calidad social y moral con una solvencia economica importante que apoya a la Universidad y coadyuda a una mayor proyeccion y vinculacion de la Institucion con la sociedad, que esta atenta a las necesidades del Estado, de la poblacion y de la comunidad en su conjunto y que contribuye mediante el apoyo a proyectos de desarrollo, a que la Universidad  ejerza una infl</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Pagina web</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WWW.AUTISMOAGUASCALIENTES.ORG.MX</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>www.aacafiq.org.mx</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Anio de autorizacion</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Socios o Asociados</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OLGA RUBIO CAMARENANANCY AMABEL ACOSTA OLGUINKATIA HELENA DELGADO DE ALBAPATRICIA EUGENIA GONZALEZ DE ANDA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rosa Isabel Najera Martinez,Juan Antonio Neri</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JUAN ANGEL JOSE PEREZ TALAMANTES, RICARDO MAGDALENO RODRIGUEZ, JUAN CARLOS RODRIGUEZ GARCIA, MARIA ALICIA DE LA ROSA LOPEZ, HECTOR MANUEL DEL VILLAR MARTINEZ, HUMBERTO LOPEZ APARICIO, OSCAR HUMBERTO LOMELIN IBARRA, ROGELIO LOPEZ LOPEZ, HUMBERTO MARTINEZ DE LEON, ALFONSO PEREZ ROMO, ANTONIO AVILA STORER, ANGELICA DE SANTOS VELASCO, RICARDO GONZALEZ ALVAREZ, ROGELIO NORIEGA AGUILAR, ELIAS ACERO TEMP</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Rubros autorizados</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['A. Organizaciones Civiles y Fideicomisos Asistenciales.']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Plantilla laboral</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Plantilla voluntariado</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Monto total plantilla laboral</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10,599,875</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>88,426</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pasivo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,835</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capital</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10,675,825</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>85,591</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gastos administracion</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>98,350</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gastos operacion</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>237,650</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>728,018</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Gastos representacion</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Ingresos</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[{'Ingresos': [{'Especie ': '', 'Efectivo ': '0', 'Tipo de donante': 'No aplica'}]}, {'OtrosIngresos': [{'Concepto': '0', 'Monto': '0'}]}]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[{'Ingresos': [{'Especie ': '', 'Efectivo ': '7,168,908', 'Tipo de donante': 'Persona Moral Privada Nacional'}, {'Especie ': '65229', 'Efectivo ': '', 'Tipo de donante': 'Persona Moral Privada Nacional'}, {'Especie ': '', 'Efectivo ': '300,000', 'Tipo de donante': 'Persona Moral Pública Nacional'}, {'Especie ': '', 'Efectivo ': '36,000', 'Tipo de donante': 'Persona Física Nacional'}]}, {'OtrosIngresos': [{'Concepto': 'NA', 'Monto': '0'}]}]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[{'Ingresos': [{'Especie ': '', 'Efectivo ': '724,918', 'Tipo de donante': 'Persona Física Nacional'}, {'Especie ': '', 'Efectivo ': '3,100', 'Tipo de donante': 'Persona Moral Privada Nacional'}]}, {'OtrosIngresos': [{'Concepto': 'OTROS INGRESOS', 'Monto': '0'}]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Egresos</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[{'Egresos': [{'Cargo ó Nombramiento': '0', 'Total de percepciones netas': '0'}]}, {'MontosConceptos': [{'Monto': '0', 'Conceptos Ejercidos': '0'}]}, {'Donativos': [{'Donativos': '0', 'Beneficiarios': '0'}]}]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[{'Egresos': [{'Cargo ó Nombramiento': 'NA', 'Total de percepciones netas': '0'}]}, {'MontosConceptos': [{'Monto': '0', 'Conceptos Ejercidos': 'NA'}]}, {'Donativos': [{'Donativos': '0', 'Beneficiarios': 'NA'}]}]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[{'Egresos': [{'Cargo ó Nombramiento': 'SECRETARIO- RICARDO MADGALENO RODRIGUEZ', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'PRIMER VOCAL- MARIA ALICIA DE LA ROSA LOPEZ', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'PRESIDENTE- JUAN ANGEL JOSE PEREZ TALAMANTES', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'CUARTO VOCAL- OSCAR HUMBERTO LOMELIN IBARRA', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'SEPTIMO VOCAL- ALFONSO PEREZ ROMO', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'OCTAVO VOCAL- ANTONIO AVILA STORER', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'SEXTO VOCAL- HUMERTO MARTINEZ DE LEON', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'TERCER VOCAL- HUMBERTO LOPEZ APARICIO', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'TESORERO- JUAN CARLOS RODRIGUEZ GARCIA', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'QUINTO VOCAL- ROGELIO LOPEZ LOPEZ', 'Total de percepciones netas': '0'}, {'Cargo ó Nombramiento': 'SEGUNDO VOCAL- HECTOR MANUEL DEL VILLAR MARTINEZ', 'Total de percepciones netas': '0'}]}, {'MontosConceptos': [{'Monto': '11,783', 'Conceptos Ejercidos': 'Cuotas al IMSS'}, {'Monto': '3,845', 'Conceptos Ejercidos': 'Premio de Puntualidad'}, {'Monto': '528,467', 'Conceptos Ejercidos': 'Eventos culturales, sociales UAA'}, {'Monto': '5,027', 'Conceptos Ejercidos': 'Aportaciones al SAR'}, {'Monto': '3,845', 'Conceptos Ejercidos': 'Premio de Asistencia'}, {'Monto': '51,000', 'Conceptos Ejercidos': 'Apoyo a movilidad'}, {'Monto': '6,726', 'Conceptos Ejercidos': 'Aportaciones al Infonavt'}, {'Monto': '4,222', 'Conceptos Ejercidos': 'Aguinaldo'}, {'Monto': '92,270', 'Conceptos Ejercidos': 'Sueldos y Salarios'}, {'Monto': '13,000', 'Conceptos Ejercidos': 'Apoyo a colegiaturas'}, {'Monto': '1,570', 'Conceptos Ejercidos': 'Comisiones sobre ventas'}, {'Monto': '6,083', 'Conceptos Ejercidos': 'Despensa'}]}, {'Donativos': [{'Donativos': '0', 'Beneficiarios': 'personas en general'}]}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Actividades</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[{'Actividades': [{'Actividad': 'MEJORAR LA CALIDAD DE VIDA DE LAS PERSONAS CON AUTISMO', 'Número de Beneficiarios': '54', 'Entidad Federativa': 'Aguascalientes', 'Municipio': 'AGUASCALIENTES'}]}]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[{'Actividades': [{'Actividad': 'Servicio de comedor', 'Número de Beneficiarios': '3,500', 'Entidad Federativa': 'Aguascalientes', 'Municipio': 'Aguascalientes'}]}]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[{'Actividades': [{'Actividad': 'Apoyo a estudiantes', 'Número de Beneficiarios': '0', 'Entidad Federativa': 'Aguascalientes', 'Municipio': 'Aguascalientes'}]}]</t>
+        </is>
       </c>
     </row>
   </sheetData>
